--- a/biology/Botanique/Gallesia_integrifolia/Gallesia_integrifolia.xlsx
+++ b/biology/Botanique/Gallesia_integrifolia/Gallesia_integrifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gallesia integrifolia est une espèce d'arbres dicotylédones de la famille des Phytolaccaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gallesia integrifolia est un arbre persistant pouvant atteindre 35 m de haut[1]. Son écorce est grise et lisse ; ses feuilles, alternes, sont elliptiques à ovales et longues de 6 à 14 cm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gallesia integrifolia est un arbre persistant pouvant atteindre 35 m de haut. Son écorce est grise et lisse ; ses feuilles, alternes, sont elliptiques à ovales et longues de 6 à 14 cm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre se rencontre au Brésil[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre se rencontre au Brésil.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Gallesia integrifolia (Spreng.) Harms[3].
-L'espèce a été initialement classée dans le genre Thouinia sous le basionyme Thouinia integrifolia Spreng.[3].
-Gallesia integrifolia a pour synonymes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Gallesia integrifolia (Spreng.) Harms.
+L'espèce a été initialement classée dans le genre Thouinia sous le basionyme Thouinia integrifolia Spreng..
+Gallesia integrifolia a pour synonymes :
 Crateva gorarema Vell.
 Crateva gorazema Moq.
 Gallesia gorazema (Vell.) Moq.
